--- a/Sampling points.xlsx
+++ b/Sampling points.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EUMETCAST#\Desktop\VOLCANO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7EB4F6-9068-400B-9D37-C3D032DF5451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="2415" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{CCA52BB5-D256-435A-911A-20E02C326236}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12675" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Heights_0430" sheetId="6" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Temps" sheetId="4" r:id="rId3"/>
     <sheet name="Sizes" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Time</t>
   </si>
@@ -227,11 +226,32 @@
   <si>
     <t>StdSmall H</t>
   </si>
+  <si>
+    <t>Column descriptions:</t>
+  </si>
+  <si>
+    <t>Overall num</t>
+  </si>
+  <si>
+    <t>Id number for given plume observation</t>
+  </si>
+  <si>
+    <t>Plume longitude seen by Himawari-8</t>
+  </si>
+  <si>
+    <t>Plume latitude seen by Himawari-8</t>
+  </si>
+  <si>
+    <t>Plume longitude seen by GK-2A</t>
+  </si>
+  <si>
+    <t>Plume latitude seen by GK-2A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -306,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,6 +382,13 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +407,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -694,7 +721,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-67F0-4026-A6EF-017ADF9C866E}"/>
             </c:ext>
@@ -1481,7 +1508,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-67F0-4026-A6EF-017ADF9C866E}"/>
             </c:ext>
@@ -1495,11 +1522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1033549008"/>
-        <c:axId val="1033548592"/>
+        <c:axId val="502046864"/>
+        <c:axId val="503277096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1033549008"/>
+        <c:axId val="502046864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1558,12 +1585,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1033548592"/>
+        <c:crossAx val="503277096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1033548592"/>
+        <c:axId val="503277096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
@@ -1622,7 +1649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1033549008"/>
+        <c:crossAx val="502046864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1677,14 +1704,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1720,7 +1747,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1856,7 +1883,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-071A-4845-9C5E-FD378C8610BA}"/>
             </c:ext>
@@ -1979,7 +2006,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-071A-4845-9C5E-FD378C8610BA}"/>
             </c:ext>
@@ -2102,7 +2129,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-071A-4845-9C5E-FD378C8610BA}"/>
             </c:ext>
@@ -2116,11 +2143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1118728112"/>
-        <c:axId val="1118728528"/>
+        <c:axId val="503283368"/>
+        <c:axId val="503280624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1118728112"/>
+        <c:axId val="503283368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.24500000000000002"/>
@@ -2179,12 +2206,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1118728528"/>
+        <c:crossAx val="503280624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1118728528"/>
+        <c:axId val="503280624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1118728112"/>
+        <c:crossAx val="503283368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2286,14 +2313,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3460,7 +3487,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25BAC2A4-BD12-4147-859C-A95AE00B5FE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25BAC2A4-BD12-4147-859C-A95AE00B5FE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +3528,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBABDD51-6941-437D-8565-959A2E285671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBABDD51-6941-437D-8565-959A2E285671}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3818,11 +3845,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE872AF0-D8C5-4C79-B453-1A53E3884E21}">
-  <dimension ref="A1:N37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3841,9 +3868,11 @@
     <col min="12" max="12" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1"/>
+    <col min="17" max="17" width="86.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -3886,8 +3915,11 @@
       <c r="N1" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3903,35 +3935,41 @@
       <c r="E2" s="14">
         <v>-19.914429999999999</v>
       </c>
-      <c r="F2" s="15">
-        <v>-175.24250000000001</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="F2" s="1">
         <v>-19.760000000000002</v>
       </c>
-      <c r="H2" s="18">
-        <v>32.97</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J2" s="6">
-        <v>4.32</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="G2" s="1">
+        <v>-175.2424</v>
+      </c>
+      <c r="H2" s="4">
+        <v>32.96</v>
+      </c>
+      <c r="I2" s="1">
         <v>0.02</v>
       </c>
-      <c r="L2" s="18">
-        <v>31.32</v>
-      </c>
-      <c r="M2" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N2" s="6">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L2" s="4">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <f>A2+1</f>
         <v>2</v>
@@ -3948,35 +3986,41 @@
       <c r="E3" s="14">
         <v>-20.045030000000001</v>
       </c>
-      <c r="F3" s="14">
-        <v>-175.07689999999999</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="F3" s="1">
         <v>-19.849599999999999</v>
       </c>
-      <c r="H3" s="18">
-        <v>40.97</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J3" s="6">
-        <v>4.24</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="G3" s="1">
+        <v>-175.07679999999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>40.96</v>
+      </c>
+      <c r="I3" s="1">
         <v>0.02</v>
       </c>
-      <c r="L3" s="18">
-        <v>39.08</v>
-      </c>
-      <c r="M3" s="6">
+      <c r="J3" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L3" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="M3" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N3" s="6">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>2.39</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>3</v>
@@ -3993,35 +4037,41 @@
       <c r="E4" s="14">
         <v>-20.08503</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="1">
+        <v>-19.904499999999999</v>
+      </c>
+      <c r="G4" s="1">
         <v>-174.95349999999999</v>
       </c>
-      <c r="G4" s="14">
-        <v>-19.904499999999999</v>
-      </c>
-      <c r="H4" s="18">
-        <v>38.78</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J4" s="6">
-        <v>4.21</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="H4" s="4">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="I4" s="1">
         <v>0.02</v>
       </c>
-      <c r="L4" s="18">
-        <v>40.17</v>
-      </c>
-      <c r="M4" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N4" s="6">
-        <v>3.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="4">
+        <v>38.42</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4038,35 +4088,41 @@
       <c r="E5" s="14">
         <v>-20.37632</v>
       </c>
-      <c r="F5" s="15">
-        <v>-175.2567</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="F5" s="1">
         <v>-20.156600000000001</v>
       </c>
-      <c r="H5" s="18">
+      <c r="G5" s="1">
+        <v>-175.2568</v>
+      </c>
+      <c r="H5" s="4">
         <v>46.66</v>
       </c>
-      <c r="I5" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J5" s="6">
-        <v>4.25</v>
-      </c>
-      <c r="K5" s="6">
+      <c r="I5" s="1">
         <v>0.02</v>
       </c>
-      <c r="L5" s="18">
-        <v>44.97</v>
-      </c>
-      <c r="M5" s="6">
+      <c r="J5" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="4">
+        <v>46.67</v>
+      </c>
+      <c r="M5" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N5" s="6">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>2.61</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4083,35 +4139,41 @@
       <c r="E6" s="14">
         <v>-20.515619999999998</v>
       </c>
-      <c r="F6" s="14">
-        <v>-175.25399999999999</v>
-      </c>
-      <c r="G6" s="14">
-        <v>-20.258099999999999</v>
-      </c>
-      <c r="H6" s="18">
-        <v>52.59</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J6" s="6">
-        <v>4.07</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="L6" s="18">
-        <v>51.16</v>
-      </c>
-      <c r="M6" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N6" s="6">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>-20.2578</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-175.2552</v>
+      </c>
+      <c r="H6" s="4">
+        <v>52.65</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L6" s="4">
+        <v>53.61</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4128,35 +4190,38 @@
       <c r="E7" s="14">
         <v>-20.400069999999999</v>
       </c>
-      <c r="F7" s="14">
-        <v>-175.89940000000001</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="F7" s="1">
         <v>-20.216999999999999</v>
       </c>
-      <c r="H7" s="18">
-        <v>39.31</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J7" s="6">
-        <v>4.45</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="G7" s="1">
+        <v>-175.89930000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="I7" s="1">
         <v>0.02</v>
       </c>
-      <c r="L7" s="18">
-        <v>40.1</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="J7" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L7" s="4">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="M7" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N7" s="6">
-        <v>6.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4173,35 +4238,38 @@
       <c r="E8" s="14">
         <v>-20.26643</v>
       </c>
-      <c r="F8" s="14">
-        <v>-175.5839</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="F8" s="1">
         <v>-20.062000000000001</v>
       </c>
-      <c r="H8" s="18">
+      <c r="G8" s="1">
+        <v>-175.584</v>
+      </c>
+      <c r="H8" s="4">
         <v>42.44</v>
       </c>
-      <c r="I8" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J8" s="6">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="L8" s="18">
-        <v>42.67</v>
-      </c>
-      <c r="M8" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N8" s="6">
-        <v>3.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="4">
+        <v>42.02</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2.29</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4218,35 +4286,38 @@
       <c r="E9" s="14">
         <v>-20.749960000000002</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="1">
+        <v>-20.552299999999999</v>
+      </c>
+      <c r="G9" s="1">
         <v>-174.64179999999999</v>
       </c>
-      <c r="G9" s="14">
-        <v>-20.552199999999999</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="H9" s="4">
         <v>41</v>
       </c>
-      <c r="I9" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J9" s="6">
-        <v>4.08</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="I9" s="1">
         <v>0.02</v>
       </c>
-      <c r="L9" s="18">
-        <v>40.21</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="J9" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L9" s="4">
+        <v>41.01</v>
+      </c>
+      <c r="M9" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N9" s="6">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4263,35 +4334,38 @@
       <c r="E10" s="14">
         <v>-20.771740000000001</v>
       </c>
-      <c r="F10" s="14">
-        <v>-175.13839999999999</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="F10" s="1">
         <v>-20.5823</v>
       </c>
-      <c r="H10" s="18">
+      <c r="G10" s="1">
+        <v>-175.1386</v>
+      </c>
+      <c r="H10" s="4">
         <v>48.77</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="1">
         <v>0.09</v>
       </c>
-      <c r="J10" s="6">
-        <v>4.18</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="L10" s="18">
-        <v>47.55</v>
-      </c>
-      <c r="M10" s="6">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="N10" s="6">
-        <v>4.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L10" s="4">
+        <v>49.81</v>
+      </c>
+      <c r="M10" s="1">
+        <v>9.9600000000000001E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4308,35 +4382,38 @@
       <c r="E11" s="14">
         <v>-20.977239999999998</v>
       </c>
-      <c r="F11" s="14">
-        <v>-175.5497</v>
-      </c>
-      <c r="G11" s="14">
-        <v>-20.7059</v>
-      </c>
-      <c r="H11" s="18">
-        <v>57.49</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="J11" s="6">
-        <v>2.93</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="L11" s="18">
-        <v>55.9</v>
-      </c>
-      <c r="M11" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N11" s="6">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>-20.702500000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-175.56280000000001</v>
+      </c>
+      <c r="H11" s="4">
+        <v>58.26</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="4">
+        <v>57.97</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4353,35 +4430,38 @@
       <c r="E12" s="15">
         <v>-20.791239999999998</v>
       </c>
-      <c r="F12" s="15">
-        <v>-175.94390000000001</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="F12" s="1">
         <v>-20.5639</v>
       </c>
-      <c r="H12" s="18">
+      <c r="G12" s="1">
+        <v>-175.94399999999999</v>
+      </c>
+      <c r="H12" s="4">
         <v>44.68</v>
       </c>
-      <c r="I12" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="J12" s="6">
-        <v>4.41</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="I12" s="1">
         <v>0.03</v>
       </c>
-      <c r="L12" s="18">
-        <v>44.12</v>
-      </c>
-      <c r="M12" s="6">
+      <c r="J12" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L12" s="4">
+        <v>45.28</v>
+      </c>
+      <c r="M12" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N12" s="6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4398,35 +4478,38 @@
       <c r="E13" s="15">
         <v>-20.647559999999999</v>
       </c>
-      <c r="F13" s="15">
-        <v>-175.70769999999999</v>
-      </c>
-      <c r="G13" s="15">
-        <v>-20.392600000000002</v>
-      </c>
-      <c r="H13" s="18">
-        <v>52.73</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J13" s="6">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="K13" s="6">
+      <c r="F13" s="1">
+        <v>-20.392199999999999</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-175.70920000000001</v>
+      </c>
+      <c r="H13" s="4">
+        <v>52.81</v>
+      </c>
+      <c r="I13" s="1">
         <v>0.02</v>
       </c>
-      <c r="L13" s="18">
-        <v>52.56</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="J13" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="4">
+        <v>53.7</v>
+      </c>
+      <c r="M13" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N13" s="6">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4443,35 +4526,38 @@
       <c r="E14" s="14">
         <v>-21.28857</v>
       </c>
-      <c r="F14" s="14">
-        <v>-175.69929999999999</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="F14" s="1">
         <v>-21.070499999999999</v>
       </c>
-      <c r="H14" s="18">
+      <c r="G14" s="1">
+        <v>-175.6994</v>
+      </c>
+      <c r="H14" s="4">
         <v>45.28</v>
       </c>
-      <c r="I14" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J14" s="6">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="I14" s="1">
         <v>0.02</v>
       </c>
-      <c r="L14" s="18">
-        <v>45.54</v>
-      </c>
-      <c r="M14" s="6">
+      <c r="J14" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L14" s="4">
+        <v>45.29</v>
+      </c>
+      <c r="M14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N14" s="6">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4488,35 +4574,38 @@
       <c r="E15" s="14">
         <v>-21.382069999999999</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="1">
+        <v>-21.2226</v>
+      </c>
+      <c r="G15" s="1">
         <v>-174.79949999999999</v>
       </c>
-      <c r="G15" s="14">
-        <v>-21.2226</v>
-      </c>
-      <c r="H15" s="18">
-        <v>34.119999999999997</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="J15" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="L15" s="18">
-        <v>34.17</v>
-      </c>
-      <c r="M15" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N15" s="6">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>34.11</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L15" s="4">
+        <v>34.29</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4533,35 +4622,36 @@
       <c r="E16" s="14">
         <v>-20.38456</v>
       </c>
-      <c r="F16" s="14">
-        <v>-175.67400000000001</v>
-      </c>
-      <c r="G16" s="14">
-        <v>-20.158899999999999</v>
-      </c>
-      <c r="H16" s="18">
-        <v>47.76</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J16" s="6">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="F16" s="1">
+        <v>-20.158799999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-175.67410000000001</v>
+      </c>
+      <c r="H16" s="4">
+        <v>47.75</v>
+      </c>
+      <c r="I16" s="1">
         <v>0.02</v>
       </c>
-      <c r="L16" s="18">
-        <v>47.9</v>
-      </c>
-      <c r="M16" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N16" s="6">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L16" s="4">
+        <v>48.27</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4578,35 +4668,36 @@
       <c r="E17" s="14">
         <v>-20.555599999999998</v>
       </c>
-      <c r="F17" s="14">
-        <v>-175.62700000000001</v>
-      </c>
-      <c r="G17" s="14">
-        <v>-20.306799999999999</v>
-      </c>
-      <c r="H17" s="18">
-        <v>51.13</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J17" s="6">
-        <v>4.25</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="L17" s="18">
-        <v>50.3</v>
-      </c>
-      <c r="M17" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N17" s="6">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>-20.306699999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-175.6276</v>
+      </c>
+      <c r="H17" s="4">
+        <v>51.16</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="4">
+        <v>51.34</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4623,35 +4714,36 @@
       <c r="E18" s="14">
         <v>-20.610330000000001</v>
       </c>
-      <c r="F18" s="14">
-        <v>-175.73089999999999</v>
-      </c>
-      <c r="G18" s="14">
+      <c r="F18" s="1">
         <v>-20.374600000000001</v>
       </c>
-      <c r="H18" s="18">
+      <c r="G18" s="1">
+        <v>-175.73099999999999</v>
+      </c>
+      <c r="H18" s="4">
         <v>49.3</v>
       </c>
-      <c r="I18" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J18" s="6">
-        <v>4.33</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="I18" s="1">
         <v>0.02</v>
       </c>
-      <c r="L18" s="18">
-        <v>49.95</v>
-      </c>
-      <c r="M18" s="6">
+      <c r="J18" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="4">
+        <v>49.34</v>
+      </c>
+      <c r="M18" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N18" s="6">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4668,35 +4760,35 @@
       <c r="E19" s="14">
         <v>-20.832239999999999</v>
       </c>
-      <c r="F19" s="15">
-        <v>-175.44839999999999</v>
-      </c>
-      <c r="G19" s="15">
-        <v>-20.5594</v>
-      </c>
-      <c r="H19" s="18">
-        <v>56.92</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J19" s="6">
-        <v>3.18</v>
-      </c>
-      <c r="K19" s="6">
+      <c r="F19" s="1">
+        <v>-20.5565</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-175.45939999999999</v>
+      </c>
+      <c r="H19" s="4">
+        <v>57.56</v>
+      </c>
+      <c r="I19" s="1">
         <v>0.02</v>
       </c>
-      <c r="L19" s="18">
-        <v>55.67</v>
-      </c>
-      <c r="M19" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N19" s="6">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J19" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L19" s="4">
+        <v>57.17</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4713,35 +4805,35 @@
       <c r="E20" s="14">
         <v>-21.138909999999999</v>
       </c>
-      <c r="F20" s="14">
-        <v>-174.7978</v>
-      </c>
-      <c r="G20" s="14">
+      <c r="F20" s="1">
         <v>-20.894500000000001</v>
       </c>
-      <c r="H20" s="18">
+      <c r="G20" s="1">
+        <v>-174.7979</v>
+      </c>
+      <c r="H20" s="4">
         <v>44.55</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="1">
         <v>0.05</v>
       </c>
-      <c r="J20" s="6">
-        <v>4.08</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="L20" s="18">
-        <v>45.57</v>
-      </c>
-      <c r="M20" s="6">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="N20" s="6">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J20" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L20" s="4">
+        <v>44.78</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4758,35 +4850,35 @@
       <c r="E21" s="14">
         <v>-20.990570000000002</v>
       </c>
-      <c r="F21" s="14">
-        <v>-174.87979999999999</v>
-      </c>
-      <c r="G21" s="14">
+      <c r="F21" s="1">
         <v>-20.779900000000001</v>
       </c>
-      <c r="H21" s="18">
-        <v>42.91</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J21" s="6">
-        <v>4.12</v>
-      </c>
-      <c r="K21" s="6">
+      <c r="G21" s="1">
+        <v>-174.87970000000001</v>
+      </c>
+      <c r="H21" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="I21" s="1">
         <v>0.02</v>
       </c>
-      <c r="L21" s="18">
-        <v>42</v>
-      </c>
-      <c r="M21" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N21" s="6">
-        <v>5.74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L21" s="4">
+        <v>42.93</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4803,35 +4895,35 @@
       <c r="E22" s="14">
         <v>-19.832380000000001</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="1">
+        <v>-19.747299999999999</v>
+      </c>
+      <c r="G22" s="1">
         <v>-175.7295</v>
       </c>
-      <c r="G22" s="14">
-        <v>-19.747299999999999</v>
-      </c>
-      <c r="H22" s="18">
+      <c r="H22" s="4">
         <v>18.45</v>
       </c>
-      <c r="I22" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J22" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="I22" s="1">
         <v>0.02</v>
       </c>
-      <c r="L22" s="18">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="M22" s="6">
+      <c r="J22" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L22" s="4">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="M22" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N22" s="6">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4848,35 +4940,35 @@
       <c r="E23" s="14">
         <v>-19.973929999999999</v>
       </c>
-      <c r="F23" s="14">
-        <v>-175.99850000000001</v>
-      </c>
-      <c r="G23" s="14">
+      <c r="F23" s="1">
         <v>-19.853000000000002</v>
       </c>
-      <c r="H23" s="18">
+      <c r="G23" s="1">
+        <v>-175.99860000000001</v>
+      </c>
+      <c r="H23" s="4">
         <v>26.21</v>
       </c>
-      <c r="I23" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J23" s="6">
-        <v>4.54</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="I23" s="1">
         <v>0.02</v>
       </c>
-      <c r="L23" s="18">
-        <v>25.48</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="J23" s="1">
+        <v>2.27</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L23" s="4">
+        <v>26.17</v>
+      </c>
+      <c r="M23" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N23" s="6">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="1">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4893,35 +4985,35 @@
       <c r="E24" s="14">
         <v>-20.110949999999999</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="1">
+        <v>-19.912099999999999</v>
+      </c>
+      <c r="G24" s="1">
         <v>-175.7911</v>
       </c>
-      <c r="G24" s="15">
-        <v>-19.911999999999999</v>
-      </c>
-      <c r="H24" s="18">
-        <v>41.98</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J24" s="6">
-        <v>4.43</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="H24" s="4">
+        <v>41.97</v>
+      </c>
+      <c r="I24" s="1">
         <v>0.02</v>
       </c>
-      <c r="L24" s="18">
-        <v>42.37</v>
-      </c>
-      <c r="M24" s="6">
+      <c r="J24" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L24" s="4">
+        <v>42.38</v>
+      </c>
+      <c r="M24" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N24" s="6">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="1">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4938,35 +5030,35 @@
       <c r="E25" s="14">
         <v>-19.990310000000001</v>
       </c>
-      <c r="F25" s="15">
-        <v>-175.46600000000001</v>
-      </c>
-      <c r="G25" s="15">
+      <c r="F25" s="1">
         <v>-19.8186</v>
       </c>
-      <c r="H25" s="18">
+      <c r="G25" s="1">
+        <v>-175.46610000000001</v>
+      </c>
+      <c r="H25" s="4">
         <v>36.97</v>
       </c>
-      <c r="I25" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J25" s="6">
-        <v>4.3600000000000003</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="I25" s="1">
         <v>0.02</v>
       </c>
-      <c r="L25" s="18">
-        <v>36.64</v>
-      </c>
-      <c r="M25" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N25" s="6">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J25" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L25" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4983,35 +5075,35 @@
       <c r="E26" s="14">
         <v>-20.2681</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="1">
+        <v>-20.109400000000001</v>
+      </c>
+      <c r="G26" s="1">
         <v>-176.0958</v>
       </c>
-      <c r="G26" s="14">
-        <v>-20.109400000000001</v>
-      </c>
-      <c r="H26" s="18">
-        <v>33.78</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J26" s="6">
-        <v>4.53</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="H26" s="4">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="I26" s="1">
         <v>0.02</v>
       </c>
-      <c r="L26" s="18">
-        <v>33.79</v>
-      </c>
-      <c r="M26" s="6">
+      <c r="J26" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L26" s="4">
+        <v>34.04</v>
+      </c>
+      <c r="M26" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N26" s="6">
-        <v>4.51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5028,35 +5120,35 @@
       <c r="E27" s="14">
         <v>-19.70964</v>
       </c>
-      <c r="F27" s="14">
-        <v>-175.24430000000001</v>
-      </c>
-      <c r="G27" s="14">
+      <c r="F27" s="1">
         <v>-19.618200000000002</v>
       </c>
-      <c r="H27" s="18">
-        <v>19.66</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J27" s="6">
-        <v>4.38</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="G27" s="1">
+        <v>-175.24420000000001</v>
+      </c>
+      <c r="H27" s="4">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="I27" s="1">
         <v>0.02</v>
       </c>
-      <c r="L27" s="18">
-        <v>19.77</v>
-      </c>
-      <c r="M27" s="6">
+      <c r="J27" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L27" s="4">
+        <v>19.63</v>
+      </c>
+      <c r="M27" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N27" s="6">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="1">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5073,35 +5165,35 @@
       <c r="E28" s="14">
         <v>-20.5929</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="1">
+        <v>-20.459800000000001</v>
+      </c>
+      <c r="G28" s="1">
         <v>-176.4076</v>
       </c>
-      <c r="G28" s="14">
-        <v>-20.459700000000002</v>
-      </c>
-      <c r="H28" s="18">
-        <v>28.47</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J28" s="6">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="H28" s="4">
+        <v>28.46</v>
+      </c>
+      <c r="I28" s="1">
         <v>0.02</v>
       </c>
-      <c r="L28" s="18">
-        <v>30.36</v>
-      </c>
-      <c r="M28" s="6">
+      <c r="J28" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L28" s="4">
+        <v>28.84</v>
+      </c>
+      <c r="M28" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N28" s="6">
-        <v>4.34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5118,35 +5210,35 @@
       <c r="E29" s="14">
         <v>-20.770589999999999</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="1">
+        <v>-20.578299999999999</v>
+      </c>
+      <c r="G29" s="1">
         <v>-176.02600000000001</v>
       </c>
-      <c r="G29" s="14">
-        <v>-20.578299999999999</v>
-      </c>
-      <c r="H29" s="18">
-        <v>41.43</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J29" s="6">
-        <v>4.45</v>
-      </c>
-      <c r="K29" s="6">
+      <c r="H29" s="4">
+        <v>41.42</v>
+      </c>
+      <c r="I29" s="1">
         <v>0.02</v>
       </c>
-      <c r="L29" s="18">
-        <v>40.1</v>
-      </c>
-      <c r="M29" s="6">
+      <c r="J29" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L29" s="4">
+        <v>41.66</v>
+      </c>
+      <c r="M29" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N29" s="6">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="1">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5163,35 +5255,35 @@
       <c r="E30" s="14">
         <v>-21.03219</v>
       </c>
-      <c r="F30" s="14">
-        <v>-175.71360000000001</v>
-      </c>
-      <c r="G30" s="14">
-        <v>-20.759899999999998</v>
-      </c>
-      <c r="H30" s="18">
-        <v>56.87</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="J30" s="6">
-        <v>3.23</v>
-      </c>
-      <c r="K30" s="6">
+      <c r="F30" s="1">
+        <v>-20.757000000000001</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-175.72460000000001</v>
+      </c>
+      <c r="H30" s="4">
+        <v>57.52</v>
+      </c>
+      <c r="I30" s="1">
         <v>0.02</v>
       </c>
-      <c r="L30" s="18">
-        <v>54.78</v>
-      </c>
-      <c r="M30" s="6">
+      <c r="J30" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L30" s="4">
+        <v>56.95</v>
+      </c>
+      <c r="M30" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N30" s="6">
-        <v>3.04</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="1">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5208,35 +5300,35 @@
       <c r="E31" s="14">
         <v>-20.73152</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="1">
+        <v>-20.5412</v>
+      </c>
+      <c r="G31" s="1">
         <v>-176.0128</v>
       </c>
-      <c r="G31" s="14">
-        <v>-20.5412</v>
-      </c>
-      <c r="H31" s="18">
-        <v>41.19</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J31" s="6">
-        <v>4.45</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="H31" s="4">
+        <v>41.18</v>
+      </c>
+      <c r="I31" s="1">
         <v>0.02</v>
       </c>
-      <c r="L31" s="18">
-        <v>42.35</v>
-      </c>
-      <c r="M31" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N31" s="6">
-        <v>4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L31" s="4">
+        <v>41.47</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5253,32 +5345,32 @@
       <c r="E32" s="14">
         <v>-21.07855</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="1">
+        <v>-20.864799999999999</v>
+      </c>
+      <c r="G32" s="1">
         <v>-175.97389999999999</v>
       </c>
-      <c r="G32" s="14">
-        <v>-20.864799999999999</v>
-      </c>
-      <c r="H32" s="18">
-        <v>43.92</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J32" s="6">
-        <v>4.41</v>
-      </c>
-      <c r="K32" s="6">
+      <c r="H32" s="4">
+        <v>43.91</v>
+      </c>
+      <c r="I32" s="1">
         <v>0.02</v>
       </c>
-      <c r="L32" s="18">
-        <v>44.7</v>
-      </c>
-      <c r="M32" s="6">
+      <c r="J32" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L32" s="4">
+        <v>43.47</v>
+      </c>
+      <c r="M32" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N32" s="6">
-        <v>4.82</v>
+      <c r="N32" s="1">
+        <v>1.66</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -5298,32 +5390,32 @@
       <c r="E33" s="14">
         <v>-21.02807</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="1">
+        <v>-20.866599999999998</v>
+      </c>
+      <c r="G33" s="1">
         <v>-176.27510000000001</v>
       </c>
-      <c r="G33" s="15">
-        <v>-20.866599999999998</v>
-      </c>
-      <c r="H33" s="18">
+      <c r="H33" s="4">
         <v>34.08</v>
       </c>
-      <c r="I33" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J33" s="6">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="I33" s="1">
         <v>0.02</v>
       </c>
-      <c r="L33" s="18">
-        <v>33.130000000000003</v>
-      </c>
-      <c r="M33" s="6">
+      <c r="J33" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L33" s="4">
+        <v>34.07</v>
+      </c>
+      <c r="M33" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N33" s="6">
-        <v>4.9800000000000004</v>
+      <c r="N33" s="1">
+        <v>1.99</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -5343,32 +5435,32 @@
       <c r="E34" s="14">
         <v>-21.126729999999998</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="1">
+        <v>-20.990100000000002</v>
+      </c>
+      <c r="G34" s="1">
         <v>-176.2424</v>
       </c>
-      <c r="G34" s="15">
-        <v>-20.990100000000002</v>
-      </c>
-      <c r="H34" s="18">
+      <c r="H34" s="4">
         <v>29.1</v>
       </c>
-      <c r="I34" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J34" s="6">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="I34" s="1">
         <v>0.02</v>
       </c>
-      <c r="L34" s="18">
-        <v>29.13</v>
-      </c>
-      <c r="M34" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="N34" s="6">
-        <v>4.29</v>
+      <c r="J34" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L34" s="4">
+        <v>28.56</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2.62</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -5388,32 +5480,32 @@
       <c r="E35" s="14">
         <v>-21.386469999999999</v>
       </c>
-      <c r="F35" s="15">
-        <v>-175.83029999999999</v>
-      </c>
-      <c r="G35" s="15">
+      <c r="F35" s="1">
         <v>-21.192599999999999</v>
       </c>
-      <c r="H35" s="18">
+      <c r="G35" s="1">
+        <v>-175.8304</v>
+      </c>
+      <c r="H35" s="4">
         <v>41.21</v>
       </c>
-      <c r="I35" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="J35" s="6">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="L35" s="18">
-        <v>41.61</v>
-      </c>
-      <c r="M35" s="6">
+      <c r="I35" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L35" s="4">
+        <v>41.63</v>
+      </c>
+      <c r="M35" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N35" s="6">
-        <v>4.38</v>
+      <c r="N35" s="1">
+        <v>2.31</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -5433,32 +5525,32 @@
       <c r="E36" s="14">
         <v>-21.159579999999998</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="1">
+        <v>-21.031199999999998</v>
+      </c>
+      <c r="G36" s="1">
         <v>-176.1549</v>
       </c>
-      <c r="G36" s="15">
-        <v>-21.031199999999998</v>
-      </c>
-      <c r="H36" s="18">
+      <c r="H36" s="4">
         <v>28.45</v>
       </c>
-      <c r="I36" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="J36" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0.03</v>
-      </c>
-      <c r="L36" s="18">
-        <v>27.46</v>
-      </c>
-      <c r="M36" s="6">
+      <c r="I36" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="L36" s="4">
+        <v>28.41</v>
+      </c>
+      <c r="M36" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="N36" s="6">
-        <v>3.81</v>
+      <c r="N36" s="1">
+        <v>1.7</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -5472,11 +5564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E57856A-1EE2-4953-9501-99FC8B3AC00C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5573,7 +5665,7 @@
         <v>-20.80498</v>
       </c>
       <c r="I2" s="12">
-        <v>-20.711400000000001</v>
+        <v>-20.711500000000001</v>
       </c>
       <c r="J2" s="12">
         <v>-175.28280000000001</v>
@@ -5582,22 +5674,22 @@
         <v>21.62</v>
       </c>
       <c r="L2" s="1">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M2" s="1">
-        <v>1.19</v>
+        <v>0.59</v>
       </c>
       <c r="N2" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O2" s="18">
-        <v>21.46</v>
+        <v>21.58</v>
       </c>
       <c r="P2" s="1">
-        <v>1.4599999999999999E-3</v>
+        <v>1.33E-3</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.45</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>11</v>
@@ -5636,22 +5728,22 @@
         <v>26.23</v>
       </c>
       <c r="L3" s="1">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M3" s="1">
-        <v>1.19</v>
+        <v>0.59</v>
       </c>
       <c r="N3" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O3" s="18">
-        <v>26.35</v>
+        <v>26.05</v>
       </c>
       <c r="P3" s="1">
-        <v>2.1099999999999999E-3</v>
+        <v>1.2099999999999999E-3</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.54</v>
+        <v>0.53</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>12</v>
@@ -5687,25 +5779,25 @@
         <v>-175.4419</v>
       </c>
       <c r="K4" s="18">
-        <v>27.4</v>
+        <v>27.39</v>
       </c>
       <c r="L4" s="1">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="M4" s="1">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="N4" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="O4" s="18">
-        <v>26.91</v>
+        <v>27.07</v>
       </c>
       <c r="P4" s="1">
-        <v>2.9399999999999999E-3</v>
+        <v>1.2449999999999999E-2</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>13</v>
@@ -5745,25 +5837,25 @@
         <v>-175.24959999999999</v>
       </c>
       <c r="K5" s="18">
-        <v>6.29</v>
+        <v>6.28</v>
       </c>
       <c r="L5" s="1">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="M5" s="1">
-        <v>1.19</v>
+        <v>0.59</v>
       </c>
       <c r="N5" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="O5" s="18">
-        <v>5.95</v>
+        <v>6.41</v>
       </c>
       <c r="P5" s="1">
-        <v>1.153E-2</v>
+        <v>6.2789999999999999E-2</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.1200000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>15</v>
@@ -5802,22 +5894,22 @@
         <v>31.75</v>
       </c>
       <c r="L6" s="1">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M6" s="1">
-        <v>1.19</v>
+        <v>0.59</v>
       </c>
       <c r="N6" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="O6" s="18">
-        <v>31.67</v>
+        <v>31.78</v>
       </c>
       <c r="P6" s="1">
-        <v>2.16E-3</v>
+        <v>2.48E-3</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.18</v>
+        <v>0.62</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>16</v>
@@ -5853,25 +5945,25 @@
         <v>-175.7388</v>
       </c>
       <c r="K7" s="18">
-        <v>39.49</v>
+        <v>39.479999999999997</v>
       </c>
       <c r="L7" s="1">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="M7" s="1">
-        <v>1.17</v>
+        <v>0.59</v>
       </c>
       <c r="N7" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="O7" s="18">
-        <v>39.64</v>
+        <v>39.840000000000003</v>
       </c>
       <c r="P7" s="1">
-        <v>2.7899999999999999E-3</v>
+        <v>4.3899999999999998E-3</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.1200000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>17</v>
@@ -5914,22 +6006,22 @@
         <v>54.96</v>
       </c>
       <c r="L8" s="1">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M8" s="1">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="N8" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="O8" s="18">
-        <v>54.73</v>
+        <v>55.02</v>
       </c>
       <c r="P8" s="1">
-        <v>1.57E-3</v>
+        <v>1.49E-3</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.26</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>18</v>
@@ -5968,22 +6060,22 @@
         <v>39.270000000000003</v>
       </c>
       <c r="L9" s="1">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="M9" s="1">
-        <v>1.1599999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="O9" s="18">
-        <v>39.15</v>
+        <v>39.42</v>
       </c>
       <c r="P9" s="1">
-        <v>3.2200000000000002E-3</v>
+        <v>9.2599999999999991E-3</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.1399999999999999</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>14</v>
@@ -6026,22 +6118,22 @@
         <v>46.14</v>
       </c>
       <c r="L10" s="1">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="M10" s="1">
-        <v>1.17</v>
+        <v>0.59</v>
       </c>
       <c r="N10" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="O10" s="18">
-        <v>46.21</v>
+        <v>46.14</v>
       </c>
       <c r="P10" s="1">
-        <v>4.81E-3</v>
+        <v>2.1760000000000002E-2</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>20</v>
@@ -6080,22 +6172,22 @@
         <v>52.17</v>
       </c>
       <c r="L11" s="1">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M11" s="1">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="N11" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="O11" s="18">
-        <v>52.04</v>
+        <v>52.15</v>
       </c>
       <c r="P11" s="1">
-        <v>2.49E-3</v>
+        <v>1.64E-3</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.83</v>
+        <v>0.46</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>21</v>
@@ -6132,28 +6224,28 @@
         <v>-20.257300000000001</v>
       </c>
       <c r="J12" s="13">
-        <v>-174.56389999999999</v>
+        <v>-174.56379999999999</v>
       </c>
       <c r="K12" s="18">
         <v>35.24</v>
       </c>
       <c r="L12" s="1">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M12" s="1">
-        <v>1.17</v>
+        <v>0.59</v>
       </c>
       <c r="N12" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O12" s="18">
-        <v>35.159999999999997</v>
+        <v>35.35</v>
       </c>
       <c r="P12" s="1">
-        <v>1.6199999999999999E-3</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.05</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>45</v>
@@ -6192,22 +6284,22 @@
         <v>36.200000000000003</v>
       </c>
       <c r="L13" s="1">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M13" s="1">
-        <v>1.17</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O13" s="18">
-        <v>35.549999999999997</v>
+        <v>36.28</v>
       </c>
       <c r="P13" s="1">
-        <v>2.2200000000000002E-3</v>
+        <v>9.8999999999999999E-4</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.01</v>
+        <v>0.59</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>44</v>
@@ -6237,7 +6329,7 @@
         <v>-19.973210000000002</v>
       </c>
       <c r="I14" s="12">
-        <v>-19.844000000000001</v>
+        <v>-19.843900000000001</v>
       </c>
       <c r="J14" s="12">
         <v>-176.80109999999999</v>
@@ -6246,22 +6338,22 @@
         <v>33.36</v>
       </c>
       <c r="L14" s="1">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="M14" s="1">
-        <v>1.23</v>
+        <v>0.61</v>
       </c>
       <c r="N14" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="O14" s="18">
         <v>33.520000000000003</v>
       </c>
       <c r="P14" s="1">
-        <v>2.6700000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.54</v>
+        <v>0.66</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>22</v>
@@ -6300,22 +6392,22 @@
         <v>57</v>
       </c>
       <c r="L15" s="1">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M15" s="1">
-        <v>1.1599999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="N15" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="O15" s="18">
-        <v>57.14</v>
+        <v>57.09</v>
       </c>
       <c r="P15" s="1">
-        <v>2.2499999999999998E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.28</v>
+        <v>0.54</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>46</v>
@@ -6345,31 +6437,31 @@
         <v>-20.822839999999999</v>
       </c>
       <c r="I16" s="12">
-        <v>-20.583400000000001</v>
+        <v>-20.583300000000001</v>
       </c>
       <c r="J16" s="12">
-        <v>-175.34010000000001</v>
+        <v>-175.34039999999999</v>
       </c>
       <c r="K16" s="18">
-        <v>58.17</v>
+        <v>58.21</v>
       </c>
       <c r="L16" s="1">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M16" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N16" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O16" s="18">
-        <v>57.98</v>
+        <v>58.33</v>
       </c>
       <c r="P16" s="1">
-        <v>2.2899999999999999E-3</v>
+        <v>9.7999999999999997E-4</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.97</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>47</v>
@@ -6412,22 +6504,22 @@
         <v>44.43</v>
       </c>
       <c r="L17" s="1">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M17" s="1">
-        <v>1.17</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="O17" s="18">
-        <v>44.55</v>
+        <v>44.5</v>
       </c>
       <c r="P17" s="1">
-        <v>2.1800000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.8</v>
+        <v>0.46</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>23</v>
@@ -6470,22 +6562,22 @@
         <v>43.2</v>
       </c>
       <c r="L18" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="M18" s="1">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="N18" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="O18" s="18">
-        <v>43.4</v>
+        <v>42.95</v>
       </c>
       <c r="P18" s="1">
-        <v>0.11157</v>
+        <v>0.20366999999999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>1.04</v>
+        <v>0.69</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>24</v>
@@ -6524,22 +6616,22 @@
         <v>37.880000000000003</v>
       </c>
       <c r="L19" s="1">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M19" s="1">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="N19" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O19" s="18">
-        <v>37.36</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="P19" s="1">
-        <v>2.0699999999999998E-3</v>
+        <v>1.1900000000000001E-3</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.05</v>
+        <v>0.51</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>25</v>
@@ -6576,28 +6668,28 @@
         <v>-20.567699999999999</v>
       </c>
       <c r="J20" s="12">
-        <v>-175.4999</v>
+        <v>-175.5</v>
       </c>
       <c r="K20" s="18">
         <v>39.19</v>
       </c>
       <c r="L20" s="1">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M20" s="1">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="N20" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O20" s="18">
-        <v>39.020000000000003</v>
+        <v>39.22</v>
       </c>
       <c r="P20" s="1">
-        <v>2.2200000000000002E-3</v>
+        <v>1.1199999999999999E-3</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.29</v>
+        <v>0.52</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>8</v>
@@ -6636,22 +6728,22 @@
         <v>37.409999999999997</v>
       </c>
       <c r="L21" s="1">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M21" s="1">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="N21" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O21" s="18">
-        <v>37.450000000000003</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="P21" s="1">
-        <v>2.2499999999999998E-3</v>
+        <v>1.1800000000000001E-3</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>9</v>
@@ -6687,25 +6779,25 @@
         <v>-176.64</v>
       </c>
       <c r="K22" s="18">
-        <v>36.17</v>
+        <v>36.159999999999997</v>
       </c>
       <c r="L22" s="1">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="M22" s="1">
-        <v>1.22</v>
+        <v>0.61</v>
       </c>
       <c r="N22" s="1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="O22" s="18">
-        <v>36.25</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="P22" s="1">
-        <v>7.1900000000000002E-3</v>
+        <v>4.8430000000000001E-2</v>
       </c>
       <c r="Q22" s="1">
-        <v>1.07</v>
+        <v>0.61</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>10</v>
@@ -6748,22 +6840,22 @@
         <v>36.619999999999997</v>
       </c>
       <c r="L23" s="1">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M23" s="1">
-        <v>1.22</v>
+        <v>0.61</v>
       </c>
       <c r="N23" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O23" s="18">
-        <v>36.549999999999997</v>
+        <v>36.64</v>
       </c>
       <c r="P23" s="1">
-        <v>1.49E-3</v>
+        <v>1.1900000000000001E-3</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.35</v>
+        <v>0.69</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>26</v>
@@ -6802,22 +6894,22 @@
         <v>36.130000000000003</v>
       </c>
       <c r="L24" s="1">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M24" s="1">
-        <v>1.19</v>
+        <v>0.59</v>
       </c>
       <c r="N24" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O24" s="18">
-        <v>36.31</v>
+        <v>35.979999999999997</v>
       </c>
       <c r="P24" s="1">
-        <v>1.4E-3</v>
+        <v>9.5E-4</v>
       </c>
       <c r="Q24" s="1">
-        <v>1.06</v>
+        <v>0.42</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>29</v>
@@ -6860,22 +6952,22 @@
         <v>34.799999999999997</v>
       </c>
       <c r="L25" s="1">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M25" s="1">
-        <v>1.18</v>
+        <v>0.59</v>
       </c>
       <c r="N25" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O25" s="18">
-        <v>34.9</v>
+        <v>34.94</v>
       </c>
       <c r="P25" s="1">
-        <v>2.2899999999999999E-3</v>
+        <v>1.1199999999999999E-3</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.1499999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>30</v>
@@ -6914,22 +7006,22 @@
         <v>35.93</v>
       </c>
       <c r="L26" s="1">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M26" s="1">
-        <v>1.22</v>
+        <v>0.61</v>
       </c>
       <c r="N26" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O26" s="18">
-        <v>36.28</v>
+        <v>36.18</v>
       </c>
       <c r="P26" s="1">
-        <v>1.75E-3</v>
+        <v>1.33E-3</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.1100000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>31</v>
@@ -6968,22 +7060,22 @@
         <v>34.18</v>
       </c>
       <c r="L27" s="1">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M27" s="1">
-        <v>1.24</v>
+        <v>0.62</v>
       </c>
       <c r="N27" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O27" s="18">
-        <v>34.450000000000003</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="P27" s="1">
-        <v>2.1900000000000001E-3</v>
+        <v>1.08E-3</v>
       </c>
       <c r="Q27" s="1">
-        <v>1.33</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>32</v>
@@ -7026,22 +7118,22 @@
         <v>34.200000000000003</v>
       </c>
       <c r="L28" s="1">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M28" s="1">
-        <v>1.19</v>
+        <v>0.6</v>
       </c>
       <c r="N28" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="O28" s="18">
-        <v>34.19</v>
+        <v>34.21</v>
       </c>
       <c r="P28" s="1">
-        <v>1.8600000000000001E-3</v>
+        <v>1.2899999999999999E-3</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.68</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>33</v>
@@ -7071,32 +7163,32 @@
       <c r="H29" s="12">
         <v>-18.459949999999999</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="1">
         <v>-18.415199999999999</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="1">
         <v>-178.55760000000001</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="4">
         <v>28.67</v>
       </c>
       <c r="L29" s="1">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M29" s="1">
-        <v>1.28</v>
+        <v>0.64</v>
       </c>
       <c r="N29" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="O29" s="18">
-        <v>28.91</v>
+        <v>0.02</v>
+      </c>
+      <c r="O29" s="4">
+        <v>28.59</v>
       </c>
       <c r="P29" s="1">
-        <v>7.7400000000000004E-3</v>
+        <v>4.7449999999999999E-2</v>
       </c>
       <c r="Q29" s="1">
-        <v>1.32</v>
+        <v>0.64</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>34</v>
@@ -7104,10 +7196,6 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -7159,7 +7247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA161F59-554D-4110-9A2B-C391045CCF89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9729,7 +9817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61879B9-FA15-4F0A-9A96-1CF374AF1A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
